--- a/RUDN/Importance/Varible_muatal_class_in_Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Eastern Asia.xlsx
@@ -19,573 +19,573 @@
     <t>Male population 80+</t>
   </si>
   <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
     <t>Male population 10-14</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
   </si>
   <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
   </si>
   <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
   </si>
   <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, total</t>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -595,18 +595,18 @@
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
@@ -628,52 +628,55 @@
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
     <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
     <t>Number of neonatal deaths</t>
@@ -685,634 +688,631 @@
     <t>Malaria cases reported</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Community health workers (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Pregnant women receiving prenatal care (%)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Low-birthweight babies (% of births)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Community health workers (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
   </si>
   <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
     <t>Self-employed, male (% of male employment)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
   </si>
   <si>
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
   </si>
 </sst>
 </file>
@@ -3174,7 +3174,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.124691335084672</v>
+        <v>1.116144326537664</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.116144326537664</v>
+        <v>1.109734070127407</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.109734070127407</v>
+        <v>1.104605864999202</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.064974200367537</v>
+        <v>1.073521208914546</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.014354805517373</v>
+        <v>1.012410097803435</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.012410097803435</v>
+        <v>1.006281481515861</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.006281481515861</v>
+        <v>1.003711104489057</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.005807796970364</v>
+        <v>1.003668839062176</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.003711104489057</v>
+        <v>1.003435738829076</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.003668839062176</v>
+        <v>1.002429053207005</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.003435738829076</v>
+        <v>1.000841751619704</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.002429053207005</v>
+        <v>0.9972607884233562</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.000841751619704</v>
+        <v>0.9887137798763477</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.9972607884233562</v>
+        <v>0.9823035234660911</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.9823035234660911</v>
+        <v>0.9802786964412642</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.9476058137683816</v>
+        <v>0.9627274442746274</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9395357499290868</v>
+        <v>0.9397115712587545</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.9296593015911001</v>
+        <v>0.9395357499290868</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.927479003256956</v>
+        <v>0.9365560373339896</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9247505351438723</v>
+        <v>0.927479003256956</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.9161061880379866</v>
+        <v>0.9247505351438723</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.9109455367234891</v>
+        <v>0.914274686206485</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.9052956310735834</v>
+        <v>0.909816110594063</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.9026516938142615</v>
+        <v>0.904400963850831</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.9006163360096728</v>
+        <v>0.9025511533291057</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.9006090071561903</v>
+        <v>0.9006163360096728</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.8969949573882947</v>
+        <v>0.9006090071561903</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.8958539553038223</v>
+        <v>0.8944475048408416</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.8933745749217583</v>
+        <v>0.8944308548241919</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.8860272925744759</v>
+        <v>0.8855935960050014</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.8855935960050014</v>
+        <v>0.8855267959201329</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.8781277517414983</v>
+        <v>0.8830380453544591</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.8740007151632829</v>
+        <v>0.880613191006528</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.8699895553828931</v>
+        <v>0.880124221286789</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.8692881200660725</v>
+        <v>0.8781277517414983</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.8690525294458662</v>
+        <v>0.8699895553828931</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.8635792989726367</v>
+        <v>0.8692881200660725</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.863519173912511</v>
+        <v>0.8690525294458662</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.8617179124958652</v>
+        <v>0.8635792989726367</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.8592358503984181</v>
+        <v>0.8617179124958652</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.8539238547018069</v>
+        <v>0.8614339372118895</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.85044620699339</v>
+        <v>0.8592358503984181</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.8497025062496892</v>
+        <v>0.8559597817377345</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.8435262750734585</v>
+        <v>0.85044620699339</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.8327240326535688</v>
+        <v>0.8497025062496892</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.8323092513564343</v>
+        <v>0.8484627203945192</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.8262175866109236</v>
+        <v>0.8476776792248624</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.8221068825002196</v>
+        <v>0.8468608322541691</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.8212127623753305</v>
+        <v>0.8375741787367463</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.8080353636390767</v>
+        <v>0.8240093247872771</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.8050017653951032</v>
+        <v>0.823762242809426</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.8019501873435246</v>
+        <v>0.8221068825002196</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.8019501873435246</v>
+        <v>0.8212127623753305</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.8019501873435246</v>
+        <v>0.8080353636390767</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.7905948759882133</v>
+        <v>0.8050017653951032</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.7894524998458368</v>
+        <v>0.8019501873435246</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.7804094061873585</v>
+        <v>0.8019501873435246</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.7799734461360137</v>
+        <v>0.7968219822153195</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.7782927194552876</v>
+        <v>0.7924263778197147</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.7778882094353925</v>
+        <v>0.7921257420552783</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.7774654128587495</v>
+        <v>0.7905948759882133</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.7768536341212271</v>
+        <v>0.7825557641029472</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.775604310997648</v>
+        <v>0.7804094061873585</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.7755056916682592</v>
+        <v>0.7799734461360137</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.7753508607441977</v>
+        <v>0.7782927194552876</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.7739383843317216</v>
+        <v>0.7768536341212271</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.7724016731796253</v>
+        <v>0.775604310997648</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.7696214050147421</v>
+        <v>0.7739383843317216</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.7672442459248821</v>
+        <v>0.7737047148672824</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.7667816521749891</v>
+        <v>0.771270300591963</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.7656597683607975</v>
+        <v>0.7696214050147421</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.765256869578532</v>
+        <v>0.7681155035088405</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.7648502502435879</v>
+        <v>0.7672442459248821</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.7646384250317626</v>
+        <v>0.7648502502435879</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.7645379557005234</v>
+        <v>0.7646384250317626</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.7622963226896597</v>
+        <v>0.7645379557005234</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.7616365124144653</v>
+        <v>0.7639233993167367</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.7612259337527243</v>
+        <v>0.7622963226896597</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.7610768434575585</v>
+        <v>0.7612259337527243</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.7601836917308749</v>
+        <v>0.7610768434575585</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.759856810634763</v>
+        <v>0.7594371448304822</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.7594371448304822</v>
+        <v>0.7593955197888567</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.7561422915356284</v>
+        <v>0.7581067088846614</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.7548805902739275</v>
+        <v>0.7561422915356284</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.7525532059927136</v>
+        <v>0.7548805902739275</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.7525301629235002</v>
+        <v>0.7536068640002007</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.7517146678772362</v>
+        <v>0.7529982133915507</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.7514414368347744</v>
+        <v>0.7525532059927136</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.7514414368347744</v>
+        <v>0.7525301629235002</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.748917749695702</v>
+        <v>0.7518243872177242</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.7488458842392216</v>
+        <v>0.7514414368347744</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.7484132579581788</v>
+        <v>0.7514414368347744</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.7465056318989689</v>
+        <v>0.7512379366312736</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.7462146835310981</v>
+        <v>0.7506784204460133</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.7421314118990048</v>
+        <v>0.7488458842392216</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.7382444486377862</v>
+        <v>0.7484132579581788</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.7371751475684845</v>
+        <v>0.7390991494924866</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.7357917019542695</v>
+        <v>0.7382444486377862</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.7301960155893525</v>
+        <v>0.7371751475684845</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.730001765395103</v>
+        <v>0.7357917019542695</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.7275606879540251</v>
+        <v>0.730001765395103</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.7273571877505252</v>
+        <v>0.7283038194663871</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.7206309367935044</v>
+        <v>0.720865887028455</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.7162766016699396</v>
+        <v>0.7176789030722399</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.7161952015885391</v>
+        <v>0.7171227640545634</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.7047279651213019</v>
+        <v>0.7162766016699396</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.7019348233843643</v>
+        <v>0.7161952015885391</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.6976385445703432</v>
+        <v>0.7129567733501101</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.6922330526263905</v>
+        <v>0.6948255456034977</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.6916123770057139</v>
+        <v>0.6922330526263905</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.690839076232413</v>
+        <v>0.6895915241364448</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.6903294007227376</v>
+        <v>0.6886107490040858</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.6895915241364448</v>
+        <v>0.6877560481493852</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.6870006512762794</v>
+        <v>0.6852945772906769</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.6852945772906769</v>
+        <v>0.6850689204622573</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.6850689204622573</v>
+        <v>0.6830734088513613</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.6848959452892822</v>
+        <v>0.6805903948660232</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.6840930444863815</v>
+        <v>0.6795651649585019</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.6795651649585019</v>
+        <v>0.6769807123740497</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.6769807123740497</v>
+        <v>0.6738949092882469</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.6738949092882469</v>
+        <v>0.6685752289685658</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.6614027717961086</v>
+        <v>0.6646486000419369</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.661077242624426</v>
+        <v>0.6587724302219715</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.6587569845349368</v>
+        <v>0.6573327677261047</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.6555595409528778</v>
+        <v>0.6542895146828516</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.6470153074086444</v>
+        <v>0.6485008588941958</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.6460486814420183</v>
+        <v>0.6378137210428527</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.6431386285319654</v>
+        <v>0.6357210461143832</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.6378137210428527</v>
+        <v>0.6341235695169065</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.6375932479865851</v>
+        <v>0.6333197437130806</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.6343372447305815</v>
+        <v>0.6314031872146884</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.6319242730868413</v>
+        <v>0.6313457917391285</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.6314031872146884</v>
+        <v>0.6297584901518278</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.6310608914542284</v>
+        <v>0.6257495361428731</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.6297584901518278</v>
+        <v>0.6234601588534965</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.6289037892971263</v>
+        <v>0.6211809565742943</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.6265552831024661</v>
+        <v>0.6208140869766547</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.6236075463728767</v>
+        <v>0.6205602809536179</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.6234601588534965</v>
+        <v>0.6155948759882128</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.6211809565742943</v>
+        <v>0.6098199529055981</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.6204683706414342</v>
+        <v>0.6095610949544326</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.6138854742788113</v>
+        <v>0.6084884062537366</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.6095610949544326</v>
+        <v>0.6082688686622055</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.6076583680517051</v>
+        <v>0.6038122142055511</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.6023877127810497</v>
+        <v>0.5934889245538508</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.6020017027796551</v>
+        <v>0.5908085512018881</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.5942884046817416</v>
+        <v>0.5902903986350512</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.5934889245538508</v>
+        <v>0.5791174645108013</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.5902903986350512</v>
+        <v>0.5698480302413671</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.5877865731799101</v>
+        <v>0.5681488746960577</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.5767613195445198</v>
+        <v>0.5522302950134954</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.5704783116408796</v>
+        <v>0.5380888856156762</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.5573225927159295</v>
+        <v>0.5334209245834924</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.5446843153521317</v>
+        <v>0.5303695805426447</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.5241167418999422</v>
+        <v>0.5215202519189732</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.5103852707786083</v>
+        <v>0.5208365921635025</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.5052407332930369</v>
+        <v>0.5152339580171583</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.5041844867474141</v>
+        <v>0.5141655819487827</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.5034131071298802</v>
+        <v>0.5141396360714352</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.5034131071298802</v>
+        <v>0.5103852707786083</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.495108773771342</v>
+        <v>0.5063896937061081</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.4920000235472066</v>
+        <v>0.5052407332930369</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.4862819524445208</v>
+        <v>0.5034131071298802</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.4688735014364287</v>
+        <v>0.5034131071298802</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.4625318168435821</v>
+        <v>0.4966190717921359</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.4619372547204554</v>
+        <v>0.495108773771342</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.4557942065721596</v>
+        <v>0.4625318168435821</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.4557833823650976</v>
+        <v>0.4594701096431737</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.4535746107167857</v>
+        <v>0.4557833823650976</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.4501091002821644</v>
+        <v>0.4415671565812631</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.4415488241730672</v>
+        <v>0.433257001753502</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.4237782524408202</v>
+        <v>0.4302271304001946</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.4202796091499648</v>
+        <v>0.4226213205688627</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.414489155446732</v>
+        <v>0.4217587469318103</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.4118765098240522</v>
+        <v>0.4202796091499648</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.3991953010691667</v>
+        <v>0.4139844493777869</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.387494029369897</v>
+        <v>0.396094428657356</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.3841789774908668</v>
+        <v>0.3949217967956624</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.3818529268547368</v>
+        <v>0.3819670776890993</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.3756334081963357</v>
+        <v>0.3818529268547368</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.3732992292415243</v>
+        <v>0.380995638558566</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.3696009759179892</v>
+        <v>0.3762187661715573</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.3661490047808198</v>
+        <v>0.3726735628716151</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.3640402216644647</v>
+        <v>0.345893078089458</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.3555697718996678</v>
+        <v>0.345893078089458</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.345893078089458</v>
+        <v>0.3331363089142614</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.345893078089458</v>
+        <v>0.3308363903813116</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.3386226775498271</v>
+        <v>0.3247643503373117</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.3379505529033437</v>
+        <v>0.3233231243392292</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.3373090592408581</v>
+        <v>0.3194133844274911</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.3336861711153196</v>
+        <v>0.3148620465765579</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.3259643909171817</v>
+        <v>0.3144452819087551</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.3201694277323552</v>
+        <v>0.3143547043074952</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.3136644602267356</v>
+        <v>0.313778455889878</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.3113327262855172</v>
+        <v>0.3127117856593289</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.3077942978697199</v>
+        <v>0.3107897407675206</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.3064238681254967</v>
+        <v>0.3103059697278721</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.306006387543674</v>
+        <v>0.3045202344366984</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.2973814678567859</v>
+        <v>0.30355237589503</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.2938921232038885</v>
+        <v>0.3021376168468801</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.2917753341256848</v>
+        <v>0.2993170860286116</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.2904883762355761</v>
+        <v>0.2917753341256848</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.2873204773345841</v>
+        <v>0.2888453379564337</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.2857334011602868</v>
+        <v>0.2887975538729759</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.2771365346994621</v>
+        <v>0.2887361724326771</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.2675928326682542</v>
+        <v>0.2873165053991735</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.2628895771553077</v>
+        <v>0.2820698223611944</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.2613177586604125</v>
+        <v>0.2731515313806627</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.2558410034902354</v>
+        <v>0.269752842095496</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.2483901133429036</v>
+        <v>0.2681278608342748</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.2341675928640976</v>
+        <v>0.2605614478778622</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.2332095879421054</v>
+        <v>0.2579664979806042</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.2297494947022851</v>
+        <v>0.251915459478387</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.2180602776051985</v>
+        <v>0.2420468633638764</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.2111274302579667</v>
+        <v>0.2382872834061507</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.2097029288334651</v>
+        <v>0.2364247630803571</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.1741490710808695</v>
+        <v>0.2293661830287508</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.1712871815525117</v>
+        <v>0.2180602776051985</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.1709477440695255</v>
+        <v>0.2111274302579667</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.1566904030687315</v>
+        <v>0.2097029288334651</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.1221991995310932</v>
+        <v>0.1926229226008915</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.0992141769152064</v>
+        <v>0.1866162310146884</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.03443662846892703</v>
+        <v>0.0540186819459556</v>
       </c>
     </row>
   </sheetData>
